--- a/output/0/tRNA-Leu-AAG-1-2.xlsx
+++ b/output/0/tRNA-Leu-AAG-1-2.xlsx
@@ -12,267 +12,219 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="79">
   <si>
     <t>chr5</t>
   </si>
   <si>
-    <t>180528520</t>
-  </si>
-  <si>
-    <t>180528543</t>
+    <t>180528841</t>
+  </si>
+  <si>
+    <t>180528864</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>180528861</t>
+  </si>
+  <si>
+    <t>150,150,150</t>
+  </si>
+  <si>
+    <t>255,0,0</t>
+  </si>
+  <si>
+    <t>TAGCGTGGCCGAGCGGTCTA</t>
+  </si>
+  <si>
+    <t>AGG</t>
+  </si>
+  <si>
+    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
+  </si>
+  <si>
+    <t>16% (36)</t>
+  </si>
+  <si>
+    <t>90% (69)</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>Sequence is not unique in genome</t>
+  </si>
+  <si>
+    <t>180528847</t>
+  </si>
+  <si>
+    <t>180528870</t>
+  </si>
+  <si>
+    <t>180528867</t>
+  </si>
+  <si>
+    <t>GGCCGAGCGGTCTAAGGCGC</t>
+  </si>
+  <si>
+    <t>TGG</t>
+  </si>
+  <si>
+    <t>21% (39)</t>
+  </si>
+  <si>
+    <t>27% (34)</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>180528849</t>
+  </si>
+  <si>
+    <t>180528872</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
-    <t>180528523</t>
-  </si>
-  <si>
-    <t>150,150,150</t>
-  </si>
-  <si>
-    <t>255,0,0</t>
-  </si>
-  <si>
-    <t>AGATAAAAATAAATAAACCA</t>
+    <t>180528852</t>
+  </si>
+  <si>
+    <t>ATCCAGCGCCTTAGACCGCT</t>
+  </si>
+  <si>
+    <t>CGG</t>
+  </si>
+  <si>
+    <t>78% (59)</t>
+  </si>
+  <si>
+    <t>48% (44)</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>180528854</t>
+  </si>
+  <si>
+    <t>180528877</t>
+  </si>
+  <si>
+    <t>180528874</t>
+  </si>
+  <si>
+    <t>CGGTCTAAGGCGCTGGATTA</t>
+  </si>
+  <si>
+    <t>9% (31)</t>
+  </si>
+  <si>
+    <t>44% (42)</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>180528869</t>
+  </si>
+  <si>
+    <t>180528892</t>
+  </si>
+  <si>
+    <t>180528889</t>
+  </si>
+  <si>
+    <t>GATTAAGGCTCCAGTCTCTT</t>
+  </si>
+  <si>
+    <t>40% (47)</t>
+  </si>
+  <si>
+    <t>52% (46)</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>180528895</t>
+  </si>
+  <si>
+    <t>TAAGGCTCCAGTCTCTTCGG</t>
+  </si>
+  <si>
+    <t>95% (67)</t>
+  </si>
+  <si>
+    <t>86% (65)</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>180528900</t>
+  </si>
+  <si>
+    <t>180528897</t>
+  </si>
+  <si>
+    <t>CTCCAGTCTCTTCGGAGGCG</t>
+  </si>
+  <si>
+    <t>27% (42)</t>
+  </si>
+  <si>
+    <t>23% (32)</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>180528878</t>
+  </si>
+  <si>
+    <t>180528901</t>
+  </si>
+  <si>
+    <t>180528898</t>
+  </si>
+  <si>
+    <t>TCCAGTCTCTTCGGAGGCGT</t>
   </si>
   <si>
     <t>GGG</t>
   </si>
   <si>
-    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
-  </si>
-  <si>
-    <t>95% (67)</t>
-  </si>
-  <si>
-    <t>10% (22)</t>
+    <t>38% (46)</t>
+  </si>
+  <si>
+    <t>94% (75)</t>
+  </si>
+  <si>
+    <t>24</t>
   </si>
   <si>
     <t>61</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>Sequence is not unique in genome</t>
-  </si>
-  <si>
-    <t>180528521</t>
-  </si>
-  <si>
-    <t>180528544</t>
-  </si>
-  <si>
-    <t>180528524</t>
-  </si>
-  <si>
-    <t>80,80,80</t>
-  </si>
-  <si>
-    <t>AAGATAAAAATAAATAAACC</t>
-  </si>
-  <si>
-    <t>AGG</t>
-  </si>
-  <si>
-    <t>75% (58)</t>
-  </si>
-  <si>
-    <t>1% (3)</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 0, Doench 2016: 75%, Moreno-Mateos: 1%</t>
-  </si>
-  <si>
-    <t>180528841</t>
-  </si>
-  <si>
-    <t>180528864</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>180528861</t>
-  </si>
-  <si>
-    <t>TAGCGTGGCCGAGCGGTCTA</t>
-  </si>
-  <si>
-    <t>16% (36)</t>
-  </si>
-  <si>
-    <t>90% (69)</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>180528847</t>
-  </si>
-  <si>
-    <t>180528870</t>
-  </si>
-  <si>
-    <t>180528867</t>
-  </si>
-  <si>
-    <t>GGCCGAGCGGTCTAAGGCGC</t>
-  </si>
-  <si>
-    <t>TGG</t>
-  </si>
-  <si>
-    <t>21% (39)</t>
-  </si>
-  <si>
-    <t>27% (34)</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>180528849</t>
-  </si>
-  <si>
-    <t>180528872</t>
-  </si>
-  <si>
-    <t>180528852</t>
-  </si>
-  <si>
-    <t>ATCCAGCGCCTTAGACCGCT</t>
-  </si>
-  <si>
-    <t>CGG</t>
-  </si>
-  <si>
-    <t>78% (59)</t>
-  </si>
-  <si>
-    <t>48% (44)</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>180528854</t>
-  </si>
-  <si>
-    <t>180528877</t>
-  </si>
-  <si>
-    <t>180528874</t>
-  </si>
-  <si>
-    <t>CGGTCTAAGGCGCTGGATTA</t>
-  </si>
-  <si>
-    <t>9% (31)</t>
-  </si>
-  <si>
-    <t>44% (42)</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>180528869</t>
-  </si>
-  <si>
-    <t>180528892</t>
-  </si>
-  <si>
-    <t>180528889</t>
-  </si>
-  <si>
-    <t>GATTAAGGCTCCAGTCTCTT</t>
-  </si>
-  <si>
-    <t>40% (47)</t>
-  </si>
-  <si>
-    <t>52% (46)</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>180528895</t>
-  </si>
-  <si>
-    <t>TAAGGCTCCAGTCTCTTCGG</t>
-  </si>
-  <si>
-    <t>86% (65)</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>180528900</t>
-  </si>
-  <si>
-    <t>180528897</t>
-  </si>
-  <si>
-    <t>CTCCAGTCTCTTCGGAGGCG</t>
-  </si>
-  <si>
-    <t>27% (42)</t>
-  </si>
-  <si>
-    <t>23% (32)</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>180528878</t>
-  </si>
-  <si>
-    <t>180528901</t>
-  </si>
-  <si>
-    <t>180528898</t>
-  </si>
-  <si>
-    <t>TCCAGTCTCTTCGGAGGCGT</t>
-  </si>
-  <si>
-    <t>38% (46)</t>
-  </si>
-  <si>
-    <t>94% (75)</t>
-  </si>
-  <si>
-    <t>24</t>
   </si>
   <si>
     <t>180528879</t>
@@ -341,7 +293,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -364,10 +316,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -423,43 +375,43 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="J2" t="s">
         <v>7</v>
       </c>
       <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
         <v>20</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
         <v>21</v>
       </c>
-      <c r="M2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>22</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>23</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" t="s">
-        <v>25</v>
-      </c>
       <c r="R2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="S2" t="s">
         <v>3</v>
@@ -470,22 +422,22 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
         <v>6</v>
@@ -497,25 +449,25 @@
         <v>7</v>
       </c>
       <c r="K3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M3" t="s">
         <v>10</v>
       </c>
       <c r="N3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" t="s">
         <v>32</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>33</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>34</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>35</v>
       </c>
       <c r="R3" t="s">
         <v>15</v>
@@ -529,22 +481,22 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
         <v>36</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
         <v>37</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" t="s">
-        <v>38</v>
       </c>
       <c r="H4" t="s">
         <v>6</v>
@@ -556,25 +508,25 @@
         <v>7</v>
       </c>
       <c r="K4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L4" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="M4" t="s">
         <v>10</v>
       </c>
       <c r="N4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="s">
         <v>41</v>
-      </c>
-      <c r="O4" t="s">
-        <v>42</v>
-      </c>
-      <c r="P4" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>44</v>
       </c>
       <c r="R4" t="s">
         <v>15</v>
@@ -588,10 +540,10 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -600,10 +552,10 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
         <v>6</v>
@@ -615,25 +567,25 @@
         <v>7</v>
       </c>
       <c r="K5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L5" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="M5" t="s">
         <v>10</v>
       </c>
       <c r="N5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="O5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="P5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="Q5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="R5" t="s">
         <v>15</v>
@@ -647,22 +599,22 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s">
         <v>6</v>
@@ -674,25 +626,25 @@
         <v>7</v>
       </c>
       <c r="K6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="L6" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="M6" t="s">
         <v>10</v>
       </c>
       <c r="N6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="Q6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="R6" t="s">
         <v>15</v>
@@ -706,22 +658,22 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H7" t="s">
         <v>6</v>
@@ -733,25 +685,25 @@
         <v>7</v>
       </c>
       <c r="K7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="L7" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="M7" t="s">
         <v>10</v>
       </c>
       <c r="N7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="O7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="P7" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="Q7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="R7" t="s">
         <v>15</v>
@@ -765,22 +717,22 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H8" t="s">
         <v>6</v>
@@ -792,25 +744,25 @@
         <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L8" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="M8" t="s">
         <v>10</v>
       </c>
       <c r="N8" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="O8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Q8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R8" t="s">
         <v>15</v>
@@ -824,22 +776,22 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="G9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H9" t="s">
         <v>6</v>
@@ -851,148 +803,30 @@
         <v>7</v>
       </c>
       <c r="K9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L9" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M9" t="s">
         <v>10</v>
       </c>
       <c r="N9" t="s">
+        <v>75</v>
+      </c>
+      <c r="O9" t="s">
+        <v>76</v>
+      </c>
+      <c r="P9" t="s">
         <v>77</v>
       </c>
-      <c r="O9" t="s">
+      <c r="Q9" t="s">
         <v>78</v>
-      </c>
-      <c r="P9" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>79</v>
       </c>
       <c r="R9" t="s">
         <v>15</v>
       </c>
       <c r="S9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" t="s">
-        <v>80</v>
-      </c>
-      <c r="G10" t="s">
-        <v>82</v>
-      </c>
-      <c r="H10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" t="s">
-        <v>83</v>
-      </c>
-      <c r="L10" t="s">
-        <v>9</v>
-      </c>
-      <c r="M10" t="s">
-        <v>10</v>
-      </c>
-      <c r="N10" t="s">
-        <v>84</v>
-      </c>
-      <c r="O10" t="s">
-        <v>85</v>
-      </c>
-      <c r="P10" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>13</v>
-      </c>
-      <c r="R10" t="s">
-        <v>15</v>
-      </c>
-      <c r="S10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" t="s">
-        <v>89</v>
-      </c>
-      <c r="G11" t="s">
-        <v>88</v>
-      </c>
-      <c r="H11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" t="s">
-        <v>6</v>
-      </c>
-      <c r="J11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" t="s">
-        <v>90</v>
-      </c>
-      <c r="L11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M11" t="s">
-        <v>10</v>
-      </c>
-      <c r="N11" t="s">
-        <v>91</v>
-      </c>
-      <c r="O11" t="s">
-        <v>92</v>
-      </c>
-      <c r="P11" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>94</v>
-      </c>
-      <c r="R11" t="s">
-        <v>15</v>
-      </c>
-      <c r="S11" t="s">
         <v>3</v>
       </c>
     </row>
